--- a/data/case1/11/Plm1_3.xlsx
+++ b/data/case1/11/Plm1_3.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.47579155995947531</v>
+        <v>-0.39698209129538498</v>
       </c>
       <c r="B1" s="0">
-        <v>0.47417189748924216</v>
+        <v>0.39580583163622407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.33063264788031432</v>
+        <v>-0.29096499839397971</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32564660019386693</v>
+        <v>0.28766431349635901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.19382194366203365</v>
+        <v>-0.15939104450859176</v>
       </c>
       <c r="B3" s="0">
-        <v>0.19246481040953256</v>
+        <v>0.15846722602953989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18046481070044607</v>
+        <v>-0.14646722614313212</v>
       </c>
       <c r="B4" s="0">
-        <v>0.17921738239206952</v>
+        <v>0.14564060344742025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17321738344007187</v>
+        <v>-0.13964060386142929</v>
       </c>
       <c r="B5" s="0">
-        <v>0.17068482482743796</v>
+        <v>0.13798703810567314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.069672545725588009</v>
+        <v>-0.053414482405611086</v>
       </c>
       <c r="B6" s="0">
-        <v>0.06960097999567294</v>
+        <v>0.053373272867322186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.049600981270755184</v>
+        <v>-0.033373273371280376</v>
       </c>
       <c r="B7" s="0">
-        <v>0.049468395317420644</v>
+        <v>0.033315429679365849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.029468396601417979</v>
+        <v>-0.013315430185230959</v>
       </c>
       <c r="B8" s="0">
-        <v>0.029403536674786679</v>
+        <v>0.013303313432738051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.023403537784131068</v>
+        <v>-0.047898061121481206</v>
       </c>
       <c r="B9" s="0">
-        <v>0.023362556971639137</v>
+        <v>0.047694680610131712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.017362558087398838</v>
+        <v>-0.041694681044262438</v>
       </c>
       <c r="B10" s="0">
-        <v>0.017364756740704479</v>
+        <v>0.04166967231076768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.012864757837061092</v>
+        <v>-0.037169672737164206</v>
       </c>
       <c r="B11" s="0">
-        <v>0.012864952055934964</v>
+        <v>0.037127161256041319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.015909462337724722</v>
+        <v>-0.03112716169178853</v>
       </c>
       <c r="B12" s="0">
-        <v>0.015882767521799845</v>
+        <v>0.031005343703544685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0098827686444122875</v>
+        <v>-0.025005344143655961</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0098798394150945157</v>
+        <v>0.024976899873061953</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0021201593827475662</v>
+        <v>-0.012976900347557496</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0021217952221617153</v>
+        <v>0.012969992898534954</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0081217940985167658</v>
+        <v>-0.0069699933405216186</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0081285918413041003</v>
+        <v>0.0069675974226175441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014128590719040268</v>
+        <v>-0.015028096701495297</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.01415844685611356</v>
+        <v>0.015004451980469957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090037473504365195</v>
+        <v>-0.0090044524247074875</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999988423228316</v>
+        <v>0.0089999995386929044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.072745531476272163</v>
+        <v>-0.094840833655023715</v>
       </c>
       <c r="B18" s="0">
-        <v>0.072677351960159342</v>
+        <v>0.094707688400546886</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.063677352974221169</v>
+        <v>-0.085707688809087745</v>
       </c>
       <c r="B19" s="0">
-        <v>0.063134703602780728</v>
+        <v>0.084660345878424081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012828133521452</v>
+        <v>-0.018013980174478306</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004180763826483</v>
+        <v>0.018004356915569453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041818024562126</v>
+        <v>-0.0090043573374170016</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999998960293798</v>
+        <v>0.0089999995777114705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.1228246575850136</v>
+        <v>-0.093953759856670871</v>
       </c>
       <c r="B22" s="0">
-        <v>0.12220403035403038</v>
+        <v>0.09363869971914518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084643558106587413</v>
+        <v>-0.084638700143702117</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084128304091991346</v>
+        <v>0.084127667416061591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0421283056068118</v>
+        <v>-0.042127668029828591</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998476258682</v>
+        <v>0.041999999382934305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.095012280190555742</v>
+        <v>-0.078572556125699577</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094765031274484102</v>
+        <v>0.078400040243355562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088765032367213337</v>
+        <v>-0.072400040670263621</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088442916630658175</v>
+        <v>0.07218082472282461</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082442917729713461</v>
+        <v>-0.0661808251515974</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081328370439937014</v>
+        <v>0.065441730965487555</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075328371565091423</v>
+        <v>-0.059441731400386111</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074556468500423634</v>
+        <v>0.058939020476239889</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.06255646972168627</v>
+        <v>-0.046939020949096744</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062175359772654204</v>
+        <v>0.046703018271033514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042175361107122722</v>
+        <v>-0.026703018790344313</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018671380576578</v>
+        <v>0.026651096336632207</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018672662027399</v>
+        <v>-0.027020024770468609</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000287017925118</v>
+        <v>0.027000730578810916</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060002883798642159</v>
+        <v>-0.0060007311069307789</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999988335208698</v>
+        <v>0.0059999995546773377</v>
       </c>
     </row>
   </sheetData>
